--- a/01/Before_Soc_EEH2.xlsx
+++ b/01/Before_Soc_EEH2.xlsx
@@ -590,13 +590,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09110512745266088</v>
+        <v>0.09111997012965616</v>
       </c>
       <c r="D2" t="n">
-        <v>1.808317565621751</v>
+        <v>1.517106385563941</v>
       </c>
       <c r="E2" t="n">
-        <v>5.102375281883752</v>
+        <v>5.32997903230128</v>
       </c>
       <c r="F2" t="n">
         <v>4.955709990220881</v>
@@ -710,10 +710,10 @@
         <v>2.358279940288869</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.315384382264637</v>
+        <v>2.315783845073712</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.07663346256222303</v>
+        <v>0.07662194197888224</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -721,13 +721,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3825581142226941</v>
+        <v>0.3826169948327441</v>
       </c>
       <c r="D4" t="n">
-        <v>6.609534376477992</v>
+        <v>5.462546447005755</v>
       </c>
       <c r="E4" t="n">
-        <v>12.77971242584417</v>
+        <v>19.95459236041787</v>
       </c>
       <c r="F4" t="n">
         <v>6.790633582964782</v>
@@ -841,10 +841,10 @@
         <v>10.45412077510447</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.415619815699963</v>
+        <v>5.416638170450605</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.07267491348898514</v>
+        <v>0.0727210600941586</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -852,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05726706799995106</v>
+        <v>0.05726635834746421</v>
       </c>
       <c r="D5" t="n">
-        <v>1.938571714348523</v>
+        <v>1.651192145632958</v>
       </c>
       <c r="E5" t="n">
-        <v>2.273795103214553</v>
+        <v>2.78367778956132</v>
       </c>
       <c r="F5" t="n">
         <v>0.09588833397055556</v>
@@ -972,10 +972,10 @@
         <v>2.830108392798054</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.685287077667309</v>
+        <v>1.685575090164587</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05528710732309333</v>
+        <v>0.05528520260695052</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -983,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06870416244546756</v>
+        <v>0.06871365205152449</v>
       </c>
       <c r="D6" t="n">
-        <v>7.578962043545107</v>
+        <v>6.235964831076077</v>
       </c>
       <c r="E6" t="n">
-        <v>17.9590066677331</v>
+        <v>29.04220718032598</v>
       </c>
       <c r="F6" t="n">
         <v>3.905844758294954</v>
@@ -1103,10 +1103,10 @@
         <v>23.04214672723738</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.380236248860779</v>
+        <v>8.38199345257202</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1134974162327614</v>
+        <v>0.1134975826612198</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1114,13 +1114,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2584192286473938</v>
+        <v>0.2584613451181084</v>
       </c>
       <c r="D7" t="n">
-        <v>1.167170039792452</v>
+        <v>0.9838937943429321</v>
       </c>
       <c r="E7" t="n">
-        <v>5.444692102872496</v>
+        <v>5.552882436525488</v>
       </c>
       <c r="F7" t="n">
         <v>5.365421499072212</v>
@@ -1234,10 +1234,10 @@
         <v>2.799653310060243</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.133591856360877</v>
+        <v>2.133959296008335</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.09762153666401102</v>
+        <v>0.0976204802085016</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1245,13 +1245,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09907098053309189</v>
+        <v>0.09908708192268813</v>
       </c>
       <c r="D8" t="n">
-        <v>5.914899176740386</v>
+        <v>4.915238273675231</v>
       </c>
       <c r="E8" t="n">
-        <v>9.402667047715871</v>
+        <v>13.51184952823813</v>
       </c>
       <c r="F8" t="n">
         <v>1.092346696514775</v>
@@ -1365,10 +1365,10 @@
         <v>7.978864774128856</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.411242432190674</v>
+        <v>6.412489543514805</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.05868343994915779</v>
+        <v>0.05867883583389337</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1376,13 +1376,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1844535118564815</v>
+        <v>0.1844836251897056</v>
       </c>
       <c r="D9" t="n">
-        <v>15.90759981448335</v>
+        <v>12.44221656058821</v>
       </c>
       <c r="E9" t="n">
-        <v>33.75942443995029</v>
+        <v>59.34405961264232</v>
       </c>
       <c r="F9" t="n">
         <v>0.7889521221437178</v>
@@ -1496,10 +1496,10 @@
         <v>2.099079254943243</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.404999727017477</v>
+        <v>1.405238998085716</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.06219799917676801</v>
+        <v>0.06219942099485299</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1507,13 +1507,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09338439894150088</v>
+        <v>0.09339716882816861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7099708059092957</v>
+        <v>0.5795886406787298</v>
       </c>
       <c r="E10" t="n">
-        <v>2.36937271273669</v>
+        <v>2.408055186283723</v>
       </c>
       <c r="F10" t="n">
         <v>1.37066806064233</v>
@@ -1627,10 +1627,10 @@
         <v>0.4788201676791468</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.3631533670785347</v>
+        <v>0.3632147554166624</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.08786220783457266</v>
+        <v>0.08785551097054836</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -1638,13 +1638,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1408416131749207</v>
+        <v>0.1404999840959247</v>
       </c>
       <c r="D11" t="n">
-        <v>2.463486169759132</v>
+        <v>2.060325189887138</v>
       </c>
       <c r="E11" t="n">
-        <v>3.545003696314529</v>
+        <v>4.338405384961669</v>
       </c>
       <c r="F11" t="n">
         <v>1.871890884003603</v>
@@ -1758,10 +1758,10 @@
         <v>9.468852910009156</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.04689905306638</v>
+        <v>5.047835531396169</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.09984956977473483</v>
+        <v>0.09984375174027703</v>
       </c>
     </row>
   </sheetData>
@@ -1919,13 +1919,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>9.800900978523652</v>
+        <v>9.799446966402993</v>
       </c>
       <c r="D2" t="n">
-        <v>3.694307209629294</v>
+        <v>3.699239616310709</v>
       </c>
       <c r="E2" t="n">
-        <v>2.01087913066973</v>
+        <v>2.003156291199458</v>
       </c>
       <c r="F2" t="n">
         <v>4.04465730447487</v>
@@ -2039,7 +2039,7 @@
         <v>5.178968711534772</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.995919120746714</v>
+        <v>2.996273648146237</v>
       </c>
       <c r="AR2" t="n">
         <v>10.29391360569126</v>
@@ -2050,13 +2050,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>8.95365246379961</v>
+        <v>8.954614512373427</v>
       </c>
       <c r="D4" t="n">
-        <v>4.213198317858347</v>
+        <v>4.206881126455964</v>
       </c>
       <c r="E4" t="n">
-        <v>4.916542033181202</v>
+        <v>4.897540761157886</v>
       </c>
       <c r="F4" t="n">
         <v>6.209954040231653</v>
@@ -2170,7 +2170,7 @@
         <v>5.637489380173168</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.488680671346025</v>
+        <v>5.487466884516335</v>
       </c>
       <c r="AR4" t="n">
         <v>10.25412078828511</v>
@@ -2181,13 +2181,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>10.37431603356571</v>
+        <v>10.37323827804262</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46062442553081</v>
+        <v>3.454173385238668</v>
       </c>
       <c r="E5" t="n">
-        <v>5.355490005268491</v>
+        <v>5.21918636978282</v>
       </c>
       <c r="F5" t="n">
         <v>8.156036112553391</v>
@@ -2301,7 +2301,7 @@
         <v>2.919958104097716</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.175349446214358</v>
+        <v>2.175430052587541</v>
       </c>
       <c r="AR5" t="n">
         <v>10.35401981398051</v>
@@ -2312,13 +2312,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>10.29747383878204</v>
+        <v>10.29634566187136</v>
       </c>
       <c r="D6" t="n">
-        <v>2.503502791819614</v>
+        <v>2.497475256680164</v>
       </c>
       <c r="E6" t="n">
-        <v>1.712344386060934</v>
+        <v>1.688254954310646</v>
       </c>
       <c r="F6" t="n">
         <v>2.502401028795926</v>
@@ -2432,7 +2432,7 @@
         <v>5.223473209984271</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.595692934272255</v>
+        <v>2.594985568508865</v>
       </c>
       <c r="AR6" t="n">
         <v>9.8077254635753</v>
@@ -2443,13 +2443,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>9.40978683096419</v>
+        <v>9.409388518221892</v>
       </c>
       <c r="D7" t="n">
-        <v>5.879697482900012</v>
+        <v>5.910943858007022</v>
       </c>
       <c r="E7" t="n">
-        <v>4.159661272558108</v>
+        <v>4.171314678022689</v>
       </c>
       <c r="F7" t="n">
         <v>6.629813586252141</v>
@@ -2563,10 +2563,10 @@
         <v>4.246283211068293</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.15085656040531</v>
+        <v>4.15186347224358</v>
       </c>
       <c r="AR7" t="n">
-        <v>10.25210506731805</v>
+        <v>10.2534401808027</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -2574,13 +2574,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>10.18996400073903</v>
+        <v>10.18876527931525</v>
       </c>
       <c r="D8" t="n">
-        <v>1.131509494247838</v>
+        <v>1.176556790366977</v>
       </c>
       <c r="E8" t="n">
-        <v>3.133538807082587</v>
+        <v>3.188977729200314</v>
       </c>
       <c r="F8" t="n">
         <v>4.174604787214624</v>
@@ -2694,10 +2694,10 @@
         <v>3.825509477903651</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.039573335158298</v>
+        <v>4.039851087142751</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.33767119916365</v>
+        <v>10.3390063126483</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -2705,13 +2705,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>8.033429120127876</v>
+        <v>8.030815349570114</v>
       </c>
       <c r="D9" t="n">
-        <v>1.039188810571942</v>
+        <v>1.031481739938129</v>
       </c>
       <c r="E9" t="n">
-        <v>1.329489444441437</v>
+        <v>1.367944098621914</v>
       </c>
       <c r="F9" t="n">
         <v>6.54777919453189</v>
@@ -2825,7 +2825,7 @@
         <v>1.877696719999238</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.939112387134328</v>
+        <v>1.939579994548633</v>
       </c>
       <c r="AR9" t="n">
         <v>9.600344096671199</v>
@@ -2836,13 +2836,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>10.28610008273749</v>
+        <v>10.28496444273229</v>
       </c>
       <c r="D10" t="n">
-        <v>5.876102554616469</v>
+        <v>6.000132511469737</v>
       </c>
       <c r="E10" t="n">
-        <v>7.139844372914691</v>
+        <v>7.147993977839233</v>
       </c>
       <c r="F10" t="n">
         <v>6.81548178602345</v>
@@ -2956,7 +2956,7 @@
         <v>7.302892485173467</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.037011503118203</v>
+        <v>8.036544324809263</v>
       </c>
       <c r="AR10" t="n">
         <v>10.23198559770029</v>
@@ -2967,13 +2967,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>9.990992013619357</v>
+        <v>9.989662733148981</v>
       </c>
       <c r="D11" t="n">
-        <v>6.800283974465416</v>
+        <v>6.813021645545188</v>
       </c>
       <c r="E11" t="n">
-        <v>5.130227285126232</v>
+        <v>5.148139532120762</v>
       </c>
       <c r="F11" t="n">
         <v>5.326728078191993</v>
@@ -3087,10 +3087,10 @@
         <v>3.603365220199925</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.039030123018959</v>
+        <v>3.039872824793824</v>
       </c>
       <c r="AR11" t="n">
-        <v>10.17690144780401</v>
+        <v>10.17556633431936</v>
       </c>
     </row>
   </sheetData>
@@ -3248,13 +3248,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6691002036495051</v>
+        <v>0.6690543771607634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7234891401578488</v>
+        <v>0.7236848453466971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998000404302648</v>
+        <v>0.5715409318629076</v>
       </c>
       <c r="F2" t="n">
         <v>0.5632126625248239</v>
@@ -3368,10 +3368,10 @@
         <v>0.7170199250367744</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5532044601817349</v>
+        <v>0.5532096175418797</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.5679323508757861</v>
+        <v>0.5675270490361223</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3379,13 +3379,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7303672419769518</v>
+        <v>0.7303368320707549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7260069360664985</v>
+        <v>0.7260156196524615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4972702799002769</v>
+        <v>0.5769626941290277</v>
       </c>
       <c r="F4" t="n">
         <v>0.7053318063512732</v>
@@ -3499,10 +3499,10 @@
         <v>0.5959801342476342</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5531990134914184</v>
+        <v>0.5532041703655227</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6767108382656215</v>
+        <v>0.6766867956553487</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3510,13 +3510,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.640298051539489</v>
+        <v>0.6403368749464705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5927365746863309</v>
+        <v>0.5927008836181217</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5274182009072134</v>
+        <v>0.5736079891357667</v>
       </c>
       <c r="F5" t="n">
         <v>0.6102437667461449</v>
@@ -3630,10 +3630,10 @@
         <v>0.5799729413537206</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5532096600209609</v>
+        <v>0.5532148179299653</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6121125087740096</v>
+        <v>0.6115491851420971</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -3641,13 +3641,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5992984903520087</v>
+        <v>0.5992771539161724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6036570341232744</v>
+        <v>0.6035000041216697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4971058256224724</v>
+        <v>0.5787933642164348</v>
       </c>
       <c r="F6" t="n">
         <v>0.5653778179173563</v>
@@ -3761,10 +3761,10 @@
         <v>0.6956154637477876</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5532108330992573</v>
+        <v>0.553215991100391</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7280855614766718</v>
+        <v>0.7279774611634179</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3772,13 +3772,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7515961304908638</v>
+        <v>0.7516087436476091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6829293085836328</v>
+        <v>0.6830145065608612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4982705663710126</v>
+        <v>0.5757524843252735</v>
       </c>
       <c r="F7" t="n">
         <v>0.5681014673375072</v>
@@ -3892,10 +3892,10 @@
         <v>0.6222544927534691</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5532102075196378</v>
+        <v>0.5532153655881056</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6737128967347303</v>
+        <v>0.6740198069709861</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -3903,13 +3903,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7292274813805277</v>
+        <v>0.7292230212435268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6715300578740457</v>
+        <v>0.6716560887600064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4980689122970563</v>
+        <v>0.5730712084487171</v>
       </c>
       <c r="F8" t="n">
         <v>0.6285275715077625</v>
@@ -4023,10 +4023,10 @@
         <v>0.7681234872867436</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5532105506749823</v>
+        <v>0.5532157086488148</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.597644276962329</v>
+        <v>0.5977094602615493</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4034,13 +4034,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7003455706842497</v>
+        <v>0.7003317476297822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7075665936743754</v>
+        <v>0.7087954093408319</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4981515047629381</v>
+        <v>0.5725907107633147</v>
       </c>
       <c r="F9" t="n">
         <v>0.5672752392140552</v>
@@ -4154,10 +4154,10 @@
         <v>0.60236413535269</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5532098591574147</v>
+        <v>0.5532150175865153</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7551127779373688</v>
+        <v>0.7550701524786492</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6017070859547491</v>
+        <v>0.6017122350161068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6477928662631876</v>
+        <v>0.6475579462812779</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7601776472225362</v>
+        <v>0.7610368391651972</v>
       </c>
       <c r="F10" t="n">
         <v>0.6342692344525269</v>
@@ -4285,10 +4285,10 @@
         <v>0.5799183483894906</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.553235881603247</v>
+        <v>0.5532412338788485</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6221283695439656</v>
+        <v>0.6221876313485818</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4296,13 +4296,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>0.60760212929999</v>
+        <v>0.6075251304663479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7064571506353357</v>
+        <v>0.7074215981352184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4988520915527762</v>
+        <v>0.5710716775755839</v>
       </c>
       <c r="F11" t="n">
         <v>0.5606044026641026</v>
@@ -4416,10 +4416,10 @@
         <v>0.5775286877776127</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5532106264069382</v>
+        <v>0.5532157843904153</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.6512208023055565</v>
+        <v>0.6510883335544122</v>
       </c>
     </row>
   </sheetData>

--- a/01/Before_Soc_EEH2.xlsx
+++ b/01/Before_Soc_EEH2.xlsx
@@ -590,130 +590,130 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09110512745266088</v>
+        <v>0.09110512745274728</v>
       </c>
       <c r="D2" t="n">
-        <v>1.808317565621751</v>
+        <v>1.808317565621137</v>
       </c>
       <c r="E2" t="n">
-        <v>5.102375281883752</v>
+        <v>5.102375281883442</v>
       </c>
       <c r="F2" t="n">
-        <v>4.955709990220881</v>
+        <v>4.95570999022096</v>
       </c>
       <c r="G2" t="n">
-        <v>4.728305976869068</v>
+        <v>4.728305976869056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6573502279149925</v>
+        <v>0.6573502279153265</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4876268333644429</v>
+        <v>0.4876268333647075</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2006670389684126</v>
+        <v>0.2006670389687205</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3363065107198081</v>
+        <v>0.3363065107197394</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3486404915659435</v>
+        <v>0.3486404915660086</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7867454030474241</v>
+        <v>0.7867454030479184</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7085178938588047</v>
+        <v>0.7085178938588076</v>
       </c>
       <c r="O2" t="n">
-        <v>0.578243072704177</v>
+        <v>0.5782430727040947</v>
       </c>
       <c r="P2" t="n">
-        <v>0.620669697446139</v>
+        <v>0.6206696974459815</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3935238098480471</v>
+        <v>0.3935238098480965</v>
       </c>
       <c r="R2" t="n">
-        <v>1.793292849568662</v>
+        <v>1.793292849568382</v>
       </c>
       <c r="S2" t="n">
-        <v>1.960193945965655</v>
+        <v>1.960193945966097</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2012881343563002</v>
+        <v>0.2012881343564293</v>
       </c>
       <c r="U2" t="n">
-        <v>1.026486704470495</v>
+        <v>1.026486704470298</v>
       </c>
       <c r="V2" t="n">
-        <v>1.496866703810349</v>
+        <v>1.496866703810401</v>
       </c>
       <c r="W2" t="n">
-        <v>1.943991415267605</v>
+        <v>1.943991415267176</v>
       </c>
       <c r="X2" t="n">
-        <v>1.204227819960403</v>
+        <v>1.204227819960765</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.435677630873798</v>
+        <v>4.435677630873861</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.672250278371997</v>
+        <v>4.672250278372217</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.195714302337441</v>
+        <v>5.195714302337562</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.984181338614419</v>
+        <v>2.98418133861448</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.438352410992321</v>
+        <v>1.43835241099225</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.025995551634071</v>
+        <v>1.025995551634524</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.118194316431568</v>
+        <v>1.118194316431466</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.11686980958466</v>
+        <v>11.11686980958482</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.942653133434842</v>
+        <v>7.942653133434908</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.35295532949855</v>
+        <v>1.352955329498495</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.255654056073265</v>
+        <v>1.255654056073191</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.9170155047522625</v>
+        <v>0.91701550475231</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.424365645444335</v>
+        <v>1.424365645444228</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.394679824613012</v>
+        <v>1.394679824613</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.469670566738933</v>
+        <v>1.469670566738944</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5869210942617124</v>
+        <v>0.5869210942615486</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5252163257242829</v>
+        <v>0.5252163257245571</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.358279940288869</v>
+        <v>2.358279940289289</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.315384382264637</v>
+        <v>2.315384382264633</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.07663346256222303</v>
+        <v>0.07663346256238521</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -721,130 +721,130 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3825581142226941</v>
+        <v>0.3825581142225869</v>
       </c>
       <c r="D4" t="n">
-        <v>6.609534376477992</v>
+        <v>6.609534376478001</v>
       </c>
       <c r="E4" t="n">
-        <v>12.77971242584417</v>
+        <v>12.77971242584407</v>
       </c>
       <c r="F4" t="n">
-        <v>6.790633582964782</v>
+        <v>6.790633582964998</v>
       </c>
       <c r="G4" t="n">
-        <v>11.0724749290139</v>
+        <v>11.07247492901373</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1579548135818561</v>
+        <v>0.1579548135816821</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2288422703135677</v>
+        <v>0.2288422703136709</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1948749289830297</v>
+        <v>0.1948749289837287</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2685557072906108</v>
+        <v>0.268555707290697</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4357092821558445</v>
+        <v>0.4357092821558052</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5074653827776999</v>
+        <v>0.5074653827776138</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2373993059442036</v>
+        <v>0.2373993059437239</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1387577965321092</v>
+        <v>0.1387577965320685</v>
       </c>
       <c r="P4" t="n">
-        <v>0.46432720488643</v>
+        <v>0.464327204886638</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7524439618108407</v>
+        <v>0.7524439618108461</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7860213280947557</v>
+        <v>0.7860213280947056</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5524887835807065</v>
+        <v>0.5524887835810169</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6458171462917385</v>
+        <v>0.6458171462916886</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3002651779086788</v>
+        <v>0.3002651779089573</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2418198895161458</v>
+        <v>0.2418198895163154</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3888126017281595</v>
+        <v>0.3888126017286654</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4660610421574628</v>
+        <v>0.4660610421586497</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3152430706275557</v>
+        <v>0.3152430706287989</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4757669994345704</v>
+        <v>0.4757669994346598</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.204298247472583</v>
+        <v>1.204298247472708</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.797463999476061</v>
+        <v>2.797463999475957</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4583383466406564</v>
+        <v>0.4583383466407528</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.147393935150569</v>
+        <v>1.147393935150886</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.467023001557319</v>
+        <v>1.467023001557116</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.180372656471356</v>
+        <v>2.180372656471306</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.91039124300538</v>
+        <v>1.910391243005359</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.683740507300945</v>
+        <v>2.683740507300996</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.015701000625129</v>
+        <v>2.015701000625007</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.211810964313713</v>
+        <v>1.211810964313368</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.694911471119207</v>
+        <v>1.694911471119201</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.145255814808103</v>
+        <v>3.145255814808074</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.218627861690788</v>
+        <v>1.218627861690802</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.478833666814812</v>
+        <v>1.478833666815049</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9489654947602487</v>
+        <v>0.9489654947599818</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.45412077510447</v>
+        <v>10.45412077510438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.415619815699963</v>
+        <v>5.415619815699977</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.07267491348898514</v>
+        <v>0.07267491348905566</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -852,130 +852,130 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05726706799995106</v>
+        <v>0.05726706800010791</v>
       </c>
       <c r="D5" t="n">
-        <v>1.938571714348523</v>
+        <v>1.938571714348498</v>
       </c>
       <c r="E5" t="n">
-        <v>2.273795103214553</v>
+        <v>2.273795103214456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09588833397055556</v>
+        <v>0.09588833397052848</v>
       </c>
       <c r="G5" t="n">
-        <v>2.40408742996564</v>
+        <v>2.404087429963653</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139516025500642</v>
+        <v>2.139516025499694</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4864724624103592</v>
+        <v>0.4864724624103588</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4997361973550683</v>
+        <v>0.4997361973550331</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1634529649404844</v>
+        <v>0.1634529649399817</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1538061454949048</v>
+        <v>0.1538061454946272</v>
       </c>
       <c r="M5" t="n">
-        <v>2.640731913390736</v>
+        <v>2.640731913390944</v>
       </c>
       <c r="N5" t="n">
-        <v>2.689724771208929</v>
+        <v>2.689724771209606</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3554387604384864</v>
+        <v>0.3554387604386354</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7202597715356112</v>
+        <v>0.7202597715360938</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9504174055881369</v>
+        <v>0.9504174055881994</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8985993018493189</v>
+        <v>0.8985993018493585</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4272234421559207</v>
+        <v>0.4272234421560258</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4343678539998891</v>
+        <v>0.4343678539997886</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1153475960583504</v>
+        <v>0.1153475960584955</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1044855890439916</v>
+        <v>0.1044855890439549</v>
       </c>
       <c r="W5" t="n">
-        <v>3.350987504469018</v>
+        <v>3.350987504470356</v>
       </c>
       <c r="X5" t="n">
-        <v>2.585213328918721</v>
+        <v>2.585213328918499</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6637226054036069</v>
+        <v>0.6637226054029274</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1294290393522681</v>
+        <v>0.129429039352432</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.122952795337331</v>
+        <v>0.1229527953371723</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.04405063524327</v>
+        <v>2.044050635243539</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.339399539050777</v>
+        <v>2.339399539049641</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.210553687260576</v>
+        <v>2.210553687261106</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.919355314473367</v>
+        <v>2.919355314472787</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2420664034119489</v>
+        <v>0.242066403411984</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2032135789782127</v>
+        <v>0.2032135789781666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.795745410467513</v>
+        <v>2.795745410466719</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.875428033730626</v>
+        <v>2.875428033730757</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1327549163482069</v>
+        <v>0.1327549163483662</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.455424036464902</v>
+        <v>0.455424036464731</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4226158525689474</v>
+        <v>0.4226158525688705</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.2887035832743992</v>
+        <v>0.2887035832742151</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1562014810603391</v>
+        <v>0.1562014810608489</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3281671647210092</v>
+        <v>0.3281671647209515</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.830108392798054</v>
+        <v>2.830108392797274</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.685287077667309</v>
+        <v>1.685287077667686</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05528710732309333</v>
+        <v>0.05528710732317829</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -983,130 +983,130 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06870416244546756</v>
+        <v>0.06870416244524315</v>
       </c>
       <c r="D6" t="n">
-        <v>7.578962043545107</v>
+        <v>7.578962043545022</v>
       </c>
       <c r="E6" t="n">
-        <v>17.9590066677331</v>
+        <v>17.95900666773335</v>
       </c>
       <c r="F6" t="n">
-        <v>3.905844758294954</v>
+        <v>3.90584475829458</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2517852345952548</v>
+        <v>0.2517852345951105</v>
       </c>
       <c r="H6" t="n">
-        <v>2.10736102953234</v>
+        <v>2.107361029532721</v>
       </c>
       <c r="I6" t="n">
-        <v>5.249258391893056</v>
+        <v>5.249258391895618</v>
       </c>
       <c r="J6" t="n">
-        <v>2.14331099980939</v>
+        <v>2.143310999809986</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7653939739316941</v>
+        <v>0.7653939739316932</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7259887271182999</v>
+        <v>0.7259887271183902</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2237990244617853</v>
+        <v>0.2237990244622095</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3245840563040426</v>
+        <v>0.3245840563041426</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5995776140306215</v>
+        <v>0.5995776140308378</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4466260578842879</v>
+        <v>0.4466260578841873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2988528116539119</v>
+        <v>0.2988528116537875</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5288939075637787</v>
+        <v>0.5288939075631756</v>
       </c>
       <c r="S6" t="n">
-        <v>2.586975526456247</v>
+        <v>2.586975526455382</v>
       </c>
       <c r="T6" t="n">
-        <v>2.853322598401491</v>
+        <v>2.853322598401048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1980105207438868</v>
+        <v>0.1980105207434536</v>
       </c>
       <c r="V6" t="n">
-        <v>1.903603467539988</v>
+        <v>1.903603467540557</v>
       </c>
       <c r="W6" t="n">
-        <v>3.126305769274984</v>
+        <v>3.126305769273676</v>
       </c>
       <c r="X6" t="n">
-        <v>2.017839706607314</v>
+        <v>2.0178397066069</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.532599655461338</v>
+        <v>1.532599655461432</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.608040273417644</v>
+        <v>0.6080402734178484</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4710439592433008</v>
+        <v>0.4710439592433268</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5981943243693081</v>
+        <v>0.5981943243701554</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2733580483370258</v>
+        <v>0.2733580483370074</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4432452503288137</v>
+        <v>0.4432452503284431</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2953820699506819</v>
+        <v>0.2953820699506074</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1918256502564581</v>
+        <v>0.1918256502564229</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.3473509514074504</v>
+        <v>0.3473509514072607</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.69725450225949</v>
+        <v>3.697254502259511</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.805231160481947</v>
+        <v>2.805231160482194</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.469284918282036</v>
+        <v>1.46928491828055</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.933283812888827</v>
+        <v>0.9332838128884556</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.392477643429096</v>
+        <v>1.392477643429583</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.638041403058929</v>
+        <v>0.6380414030588144</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.8814266565714968</v>
+        <v>0.8814266565715939</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.4274508706634588</v>
+        <v>0.4274508706634165</v>
       </c>
       <c r="AP6" t="n">
-        <v>23.04214672723738</v>
+        <v>23.04214672723717</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.380236248860779</v>
+        <v>8.380236248860749</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1134974162327614</v>
+        <v>0.1134974162327087</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1114,130 +1114,130 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2584192286473938</v>
+        <v>0.2584192286473807</v>
       </c>
       <c r="D7" t="n">
-        <v>1.167170039792452</v>
+        <v>1.167170039792751</v>
       </c>
       <c r="E7" t="n">
-        <v>5.444692102872496</v>
+        <v>5.444692102872488</v>
       </c>
       <c r="F7" t="n">
-        <v>5.365421499072212</v>
+        <v>5.365421499072091</v>
       </c>
       <c r="G7" t="n">
-        <v>4.521996612884925</v>
+        <v>4.521996612885161</v>
       </c>
       <c r="H7" t="n">
-        <v>6.101037209511795</v>
+        <v>6.101037209511831</v>
       </c>
       <c r="I7" t="n">
-        <v>1.689230451557438</v>
+        <v>1.689230451557512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7195460553517712</v>
+        <v>0.719546055351741</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7246339423432465</v>
+        <v>0.7246339423431102</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5497348728534668</v>
+        <v>0.5497348728534854</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8849839947425366</v>
+        <v>0.884983994741079</v>
       </c>
       <c r="N7" t="n">
-        <v>1.143030373648989</v>
+        <v>1.143030373650497</v>
       </c>
       <c r="O7" t="n">
-        <v>1.192101584686883</v>
+        <v>1.192101584686895</v>
       </c>
       <c r="P7" t="n">
-        <v>1.499167677732708</v>
+        <v>1.499167677732804</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.103487549715528</v>
+        <v>1.103487549715458</v>
       </c>
       <c r="R7" t="n">
-        <v>1.370485861962105</v>
+        <v>1.370485861961982</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2938049802585509</v>
+        <v>0.2938049802587787</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3085406579959035</v>
+        <v>0.3085406579957352</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1893302329705083</v>
+        <v>0.1893302329706964</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1850367637057823</v>
+        <v>0.1850367637051955</v>
       </c>
       <c r="W7" t="n">
-        <v>1.892800415264358</v>
+        <v>1.892800415264352</v>
       </c>
       <c r="X7" t="n">
-        <v>2.476576570611738</v>
+        <v>2.476576570611698</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6562283848102787</v>
+        <v>0.6562283848103228</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.037005350564945</v>
+        <v>1.037005350565538</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.077450533605487</v>
+        <v>1.077450533605497</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.071853713832032</v>
+        <v>1.071853713832115</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2917082175348988</v>
+        <v>0.2917082175350443</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6251505010140325</v>
+        <v>0.6251505010138968</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7384173985432509</v>
+        <v>0.7384173985433935</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140437691277498</v>
+        <v>1.140437691277544</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9506391495333878</v>
+        <v>0.950639149533391</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.769574629828342</v>
+        <v>1.769574629828375</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7563545475082515</v>
+        <v>0.7563545475083089</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6544863852203615</v>
+        <v>0.654486385220406</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7166912588057736</v>
+        <v>0.7166912588058066</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7136818815778069</v>
+        <v>0.713681881577872</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.5910274674935888</v>
+        <v>0.5910274674935284</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.309811582727489</v>
+        <v>1.309811582727438</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.041765793983745</v>
+        <v>1.041765793983718</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.799653310060243</v>
+        <v>2.799653310060041</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.133591856360877</v>
+        <v>2.133591856360988</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.09762153666401102</v>
+        <v>0.09762153666394392</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1245,130 +1245,130 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09907098053309189</v>
+        <v>0.0990709805327786</v>
       </c>
       <c r="D8" t="n">
-        <v>5.914899176740386</v>
+        <v>5.914899176740545</v>
       </c>
       <c r="E8" t="n">
-        <v>9.402667047715871</v>
+        <v>9.402667047716065</v>
       </c>
       <c r="F8" t="n">
-        <v>1.092346696514775</v>
+        <v>1.092346696515457</v>
       </c>
       <c r="G8" t="n">
-        <v>2.120478599155002</v>
+        <v>2.120478599153854</v>
       </c>
       <c r="H8" t="n">
-        <v>1.246852250512755</v>
+        <v>1.24685225051268</v>
       </c>
       <c r="I8" t="n">
-        <v>1.807871381649201</v>
+        <v>1.807871381649824</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1030615727392286</v>
+        <v>0.1030615727386997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2381997822197322</v>
+        <v>0.2381997822192078</v>
       </c>
       <c r="L8" t="n">
-        <v>0.268597529663141</v>
+        <v>0.2685975296623541</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1009939425864039</v>
+        <v>0.1009939425863642</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09385734391438016</v>
+        <v>0.09385734391330527</v>
       </c>
       <c r="O8" t="n">
-        <v>1.254082700598441</v>
+        <v>1.254082700597417</v>
       </c>
       <c r="P8" t="n">
-        <v>1.926438969121975</v>
+        <v>1.926438969121257</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.323013784282182</v>
+        <v>1.323013784281368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6850378278567942</v>
+        <v>0.6850378278564099</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8441243587865275</v>
+        <v>0.8441243587859664</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05267341462779</v>
+        <v>1.052673414627253</v>
       </c>
       <c r="U8" t="n">
-        <v>4.347131521806639</v>
+        <v>4.347131521806705</v>
       </c>
       <c r="V8" t="n">
-        <v>5.500094425106256</v>
+        <v>5.500094425106466</v>
       </c>
       <c r="W8" t="n">
-        <v>2.664355164465775</v>
+        <v>2.664355164465495</v>
       </c>
       <c r="X8" t="n">
-        <v>3.27173280908336</v>
+        <v>3.271732809082469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3830325998307238</v>
+        <v>0.3830325998303173</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4214073090596863</v>
+        <v>0.4214073090594115</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5306236379473798</v>
+        <v>0.5306236379482353</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8312678183712904</v>
+        <v>0.8312678183722502</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.362353535993395</v>
+        <v>2.362353535994083</v>
       </c>
       <c r="AD8" t="n">
-        <v>4.461936849143606</v>
+        <v>4.46193684914361</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.458391904608913</v>
+        <v>4.45839190460873</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.491162530864497</v>
+        <v>2.491162530861648</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.067404677797396</v>
+        <v>3.067404677794349</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.853183207263166</v>
+        <v>1.853183207263566</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2540754113541703</v>
+        <v>0.2540754113540675</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.544517130209445</v>
+        <v>1.544517130209263</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.361721457812838</v>
+        <v>1.361721457812243</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.731384650940222</v>
+        <v>1.731384650939969</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.642952695389013</v>
+        <v>1.642952695389462</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.178129587430423</v>
+        <v>1.178129587429744</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.8207223550969162</v>
+        <v>0.8207223550969909</v>
       </c>
       <c r="AP8" t="n">
-        <v>7.978864774128856</v>
+        <v>7.97886477412852</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.411242432190674</v>
+        <v>6.411242432190562</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.05868343994915779</v>
+        <v>0.05868343994969216</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1376,130 +1376,130 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1844535118564815</v>
+        <v>0.1844535118563338</v>
       </c>
       <c r="D9" t="n">
-        <v>15.90759981448335</v>
+        <v>15.90759981448338</v>
       </c>
       <c r="E9" t="n">
-        <v>33.75942443995029</v>
+        <v>33.75942443995079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7889521221437178</v>
+        <v>0.7889521221436031</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1528183757069639</v>
+        <v>0.1528183757067479</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1942785065737484</v>
+        <v>0.1942785065737763</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2856816445122261</v>
+        <v>0.2856816445116634</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2840237342218317</v>
+        <v>0.2840237342218399</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2011148935286414</v>
+        <v>0.2011148935283571</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1740239388709337</v>
+        <v>0.1740239388706882</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09407024375148061</v>
+        <v>0.09407024375152628</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1181857115895268</v>
+        <v>0.118185711589462</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7024881977377593</v>
+        <v>0.7024881977379233</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8440988412746468</v>
+        <v>0.8440988412750285</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1317982513056332</v>
+        <v>0.1317982513064817</v>
       </c>
       <c r="R9" t="n">
-        <v>0.487545483798202</v>
+        <v>0.4875454837979795</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7316370701498247</v>
+        <v>0.7316370701499043</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9177372904531592</v>
+        <v>0.917737290453035</v>
       </c>
       <c r="U9" t="n">
-        <v>2.710381068500936</v>
+        <v>2.710381068500811</v>
       </c>
       <c r="V9" t="n">
-        <v>4.272233057929072</v>
+        <v>4.272233057929055</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8915917500478959</v>
+        <v>0.8915917500474881</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8892875596037819</v>
+        <v>0.8892875596037588</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2688112192677475</v>
+        <v>0.2688112192672599</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3496705669907241</v>
+        <v>0.3496705669907447</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.071504437791304</v>
+        <v>1.071504437790074</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.431697929429917</v>
+        <v>2.431697929428735</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.990295435533819</v>
+        <v>1.990295435533437</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.189535131482965</v>
+        <v>0.1895351314826911</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1929837114081822</v>
+        <v>0.1929837114082328</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1838700144065714</v>
+        <v>0.1838700144063207</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.06884395437702427</v>
+        <v>0.06884395437683194</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.06973800438425129</v>
+        <v>0.06973800438509935</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6802879163670594</v>
+        <v>0.6802879163670082</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.321591885812909</v>
+        <v>1.321591885812847</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4601025839852169</v>
+        <v>0.460102583985217</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.633540609753527</v>
+        <v>2.633540609753396</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.050956149226864</v>
+        <v>2.05095614922684</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.43732497272351</v>
+        <v>17.43732497272375</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.683355710499956</v>
+        <v>8.683355710499907</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.099079254943243</v>
+        <v>2.099079254944878</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.404999727017477</v>
+        <v>1.40499972701828</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.06219799917676801</v>
+        <v>0.06219799917719657</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1507,130 +1507,130 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09338439894150088</v>
+        <v>0.09338439894119885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7099708059092957</v>
+        <v>0.7099708059093959</v>
       </c>
       <c r="E10" t="n">
-        <v>2.36937271273669</v>
+        <v>2.369372712736695</v>
       </c>
       <c r="F10" t="n">
-        <v>1.37066806064233</v>
+        <v>1.370668060642352</v>
       </c>
       <c r="G10" t="n">
-        <v>2.062335095593631</v>
+        <v>2.062335095593449</v>
       </c>
       <c r="H10" t="n">
-        <v>1.120602055575849</v>
+        <v>1.120602055575731</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2845367487586156</v>
+        <v>0.2845367487586705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3009803958981206</v>
+        <v>0.3009803958980431</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2165426603353824</v>
+        <v>0.2165426603353372</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2486085286657723</v>
+        <v>0.2486085286655577</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4506801188149653</v>
+        <v>0.4506801188148256</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5557214058437742</v>
+        <v>0.5557214058437082</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5594049110099543</v>
+        <v>0.5594049110104903</v>
       </c>
       <c r="P10" t="n">
-        <v>1.208599987192802</v>
+        <v>1.208599987192513</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.29957493202761</v>
+        <v>1.299574932027652</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2163551480694587</v>
+        <v>0.2163551480694446</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3813977216856654</v>
+        <v>0.3813977216858959</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1161141486502964</v>
+        <v>0.1161141486506384</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5022379889913876</v>
+        <v>0.5022379889910812</v>
       </c>
       <c r="V10" t="n">
-        <v>0.212031686527178</v>
+        <v>0.2120316865267244</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1572116708978451</v>
+        <v>0.1572116708982157</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4609341133464501</v>
+        <v>0.4609341133465603</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4507320301266695</v>
+        <v>0.4507320301264894</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1355931133602936</v>
+        <v>0.1355931133604427</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3326658007550304</v>
+        <v>0.3326658007551295</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.295620716673237</v>
+        <v>1.29562071667309</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.410410680695039</v>
+        <v>1.410410680694923</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.372633092432523</v>
+        <v>1.372633092432459</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3928308875888948</v>
+        <v>0.39283088758931</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5202656944145662</v>
+        <v>0.5202656944150152</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.8629048670614569</v>
+        <v>0.8629048670614567</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.079721488012101</v>
+        <v>1.079721488011959</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.4919875553027537</v>
+        <v>0.4919875553027628</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.7569667453611584</v>
+        <v>0.756966745361159</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.3325029456709293</v>
+        <v>0.3325029456704164</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.3628773641247988</v>
+        <v>0.3628773641244373</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.21957771376572</v>
+        <v>0.2195777137659915</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2173490195353166</v>
+        <v>0.2173490195352394</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.4615623443339511</v>
+        <v>0.4615623443337017</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.4788201676791468</v>
+        <v>0.478820167680347</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.3631533670785347</v>
+        <v>0.3631533670793522</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.08786220783457266</v>
+        <v>0.08786220783445016</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -1638,130 +1638,130 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1408416131749207</v>
+        <v>0.1408416131748784</v>
       </c>
       <c r="D11" t="n">
-        <v>2.463486169759132</v>
+        <v>2.463486169759011</v>
       </c>
       <c r="E11" t="n">
-        <v>3.545003696314529</v>
+        <v>3.545003696314772</v>
       </c>
       <c r="F11" t="n">
-        <v>1.871890884003603</v>
+        <v>1.871890884002731</v>
       </c>
       <c r="G11" t="n">
-        <v>3.155009401458295</v>
+        <v>3.155009401458689</v>
       </c>
       <c r="H11" t="n">
-        <v>3.34050441796977</v>
+        <v>3.340504417969573</v>
       </c>
       <c r="I11" t="n">
-        <v>4.108558221623082</v>
+        <v>4.10855822162258</v>
       </c>
       <c r="J11" t="n">
-        <v>4.721419110236543</v>
+        <v>4.721419110236226</v>
       </c>
       <c r="K11" t="n">
-        <v>2.231208483496275</v>
+        <v>2.231208483496323</v>
       </c>
       <c r="L11" t="n">
-        <v>2.435278111426638</v>
+        <v>2.435278111426496</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9330233980534669</v>
+        <v>0.9330233980557335</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1137632425699178</v>
+        <v>0.113763242569368</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7186482570664396</v>
+        <v>0.7186482570670167</v>
       </c>
       <c r="P11" t="n">
-        <v>2.593232125953896</v>
+        <v>2.593232125953163</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.869615056108942</v>
+        <v>2.869615056108718</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5543156095086346</v>
+        <v>0.5543156095089689</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4020232995607588</v>
+        <v>0.402023299560791</v>
       </c>
       <c r="T11" t="n">
-        <v>3.772057525268116</v>
+        <v>3.772057525267834</v>
       </c>
       <c r="U11" t="n">
-        <v>4.462067528731924</v>
+        <v>4.462067528732019</v>
       </c>
       <c r="V11" t="n">
-        <v>0.103294311019013</v>
+        <v>0.1032943110176593</v>
       </c>
       <c r="W11" t="n">
-        <v>5.448647437915576</v>
+        <v>5.448647437915255</v>
       </c>
       <c r="X11" t="n">
-        <v>6.55103830222855</v>
+        <v>6.551038302228543</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.26788677376365</v>
+        <v>0.2678867737640999</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.044404111987711</v>
+        <v>1.044404111987767</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.45852470379366</v>
+        <v>1.458524703793631</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.169607150694883</v>
+        <v>1.169607150694808</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.618291689399183</v>
+        <v>1.618291689399248</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2349002013111945</v>
+        <v>0.2349002013112489</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3081764643078312</v>
+        <v>0.3081764643079808</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3146720790558084</v>
+        <v>0.3146720790558831</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.2708090581532993</v>
+        <v>0.2708090581531591</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1314417097343507</v>
+        <v>0.131441709734128</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.135544926952708</v>
+        <v>0.1355449269520354</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.205910645975351</v>
+        <v>0.2059106459756556</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.2452164636846156</v>
+        <v>0.245216463684282</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.4705068175992018</v>
+        <v>0.4705068175994046</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5466914390534754</v>
+        <v>0.5466914390536713</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3155806346460253</v>
+        <v>0.3155806346460314</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.4758795317613387</v>
+        <v>0.4758795317613473</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.468852910009156</v>
+        <v>9.468852910009346</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.04689905306638</v>
+        <v>5.046899053066386</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.09984956977473483</v>
+        <v>0.0998495697750946</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1979,7 @@
         <v>5.941525700974786</v>
       </c>
       <c r="W2" t="n">
-        <v>4.422300777691779</v>
+        <v>4.396063753861651</v>
       </c>
       <c r="X2" t="n">
         <v>5.41546524422291</v>
@@ -2009,7 +2009,7 @@
         <v>6.534182523914643</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.243838122262932</v>
+        <v>4.248186637808528</v>
       </c>
       <c r="AH2" t="n">
         <v>7.144088952883252</v>
@@ -2193,7 +2193,7 @@
         <v>8.156036112553391</v>
       </c>
       <c r="G5" t="n">
-        <v>2.322399636483029</v>
+        <v>2.363575318419219</v>
       </c>
       <c r="H5" t="n">
         <v>3.32555478710244</v>
@@ -2274,7 +2274,7 @@
         <v>7.526071856724564</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.584922498892258</v>
+        <v>3.598345317684204</v>
       </c>
       <c r="AI5" t="n">
         <v>4.108996869167294</v>
@@ -2301,7 +2301,7 @@
         <v>2.919958104097716</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.175349446214358</v>
+        <v>2.173997181170408</v>
       </c>
       <c r="AR5" t="n">
         <v>10.35401981398051</v>
@@ -2327,7 +2327,7 @@
         <v>6.57929428548611</v>
       </c>
       <c r="H6" t="n">
-        <v>4.855135113089326</v>
+        <v>4.841912986809339</v>
       </c>
       <c r="I6" t="n">
         <v>6.441860574264636</v>
@@ -2432,7 +2432,7 @@
         <v>5.223473209984271</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.595692934272255</v>
+        <v>2.59289258981649</v>
       </c>
       <c r="AR6" t="n">
         <v>9.8077254635753</v>
@@ -2563,7 +2563,7 @@
         <v>4.246283211068293</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.15085656040531</v>
+        <v>4.155313892696621</v>
       </c>
       <c r="AR7" t="n">
         <v>10.25210506731805</v>
@@ -2682,7 +2682,7 @@
         <v>7.541221343478032</v>
       </c>
       <c r="AM8" t="n">
-        <v>3.214945448439856</v>
+        <v>3.210540162096244</v>
       </c>
       <c r="AN8" t="n">
         <v>6.554588851677623</v>
@@ -2694,7 +2694,7 @@
         <v>3.825509477903651</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.039573335158298</v>
+        <v>4.035863485056029</v>
       </c>
       <c r="AR8" t="n">
         <v>10.33767119916365</v>
@@ -2768,7 +2768,7 @@
         <v>5.821811718787853</v>
       </c>
       <c r="X9" t="n">
-        <v>5.689782152613081</v>
+        <v>5.680475100240908</v>
       </c>
       <c r="Y9" t="n">
         <v>7.325912668932898</v>
@@ -2810,7 +2810,7 @@
         <v>6.273669145502632</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.158527501291423</v>
+        <v>2.139727290487065</v>
       </c>
       <c r="AM9" t="n">
         <v>3.953589520265312</v>
@@ -2819,13 +2819,13 @@
         <v>4.927226855864959</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.878333080721537</v>
+        <v>2.875788551459451</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.877696719999238</v>
+        <v>1.854705379397729</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.939112387134328</v>
+        <v>1.945177410988978</v>
       </c>
       <c r="AR9" t="n">
         <v>9.600344096671199</v>
@@ -2935,7 +2935,7 @@
         <v>7.910182529482569</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.04180854713526</v>
+        <v>7.049745055071768</v>
       </c>
       <c r="AK10" t="n">
         <v>7.539358195376918</v>
@@ -3072,7 +3072,7 @@
         <v>7.74436067210697</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.953486668070172</v>
+        <v>6.942617102852781</v>
       </c>
       <c r="AM11" t="n">
         <v>7.138417225607149</v>
@@ -3248,130 +3248,130 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6691002036495051</v>
+        <v>0.6691002036520127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7234891401578488</v>
+        <v>0.7234891401576928</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998000404302648</v>
+        <v>0.4998000404302625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5632126625248239</v>
+        <v>0.5632126625248228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5687778362702599</v>
+        <v>0.5687778362702586</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6846505402728101</v>
+        <v>0.6846505402726731</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5766183682703715</v>
+        <v>0.5766183682703612</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5808512605521928</v>
+        <v>0.5808512605518998</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5699862463993479</v>
+        <v>0.5699862463996581</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6446070988015528</v>
+        <v>0.6446070988014633</v>
       </c>
       <c r="M2" t="n">
-        <v>0.701960359389346</v>
+        <v>0.7019603593893367</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5660346407222302</v>
+        <v>0.5660346407222366</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6987270696374974</v>
+        <v>0.6987270696363946</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5681308740945848</v>
+        <v>0.568130874094665</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5752392698163034</v>
+        <v>0.5752392698161346</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6320018928365915</v>
+        <v>0.6320018928369614</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6420129550894892</v>
+        <v>0.6420129550894559</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7048358813902338</v>
+        <v>0.7048358813904434</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6814103764061916</v>
+        <v>0.6814103764060894</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5661562754042488</v>
+        <v>0.56615627540425</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5802575078893062</v>
+        <v>0.5802575078893046</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6321125786074406</v>
+        <v>0.6321125786073847</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7229936652642378</v>
+        <v>0.7229936652642508</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6451708307986073</v>
+        <v>0.6451708308021586</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5577682095203406</v>
+        <v>0.55776820952034</v>
       </c>
       <c r="AB2" t="n">
         <v>0.5714498212216</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5735046786662379</v>
+        <v>0.5735046786662344</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5690418928263076</v>
+        <v>0.5690418928263419</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6329442874112795</v>
+        <v>0.6329442874112551</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6337421497963133</v>
+        <v>0.6337421497964927</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5563409272956769</v>
+        <v>0.556340927295677</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7724504346977731</v>
+        <v>0.7724504346977428</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5965078542447911</v>
+        <v>0.5965078542447966</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6012812961902838</v>
+        <v>0.6012812961903623</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.7590140028268085</v>
+        <v>0.7590140028268154</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.672669300724055</v>
+        <v>0.6726693007246276</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5749031537760618</v>
+        <v>0.5749031537760577</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5815418837766194</v>
+        <v>0.5815418837795499</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5689580025289167</v>
+        <v>0.5689580025290224</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7170199250367744</v>
+        <v>0.7170199250363731</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5532044601817349</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.5679323508757861</v>
+        <v>0.5679323508744949</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3379,130 +3379,130 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7303672419769518</v>
+        <v>0.7303672419778398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7260069360664985</v>
+        <v>0.7260069360663856</v>
       </c>
       <c r="E4" t="n">
         <v>0.4972702799002769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7053318063512732</v>
+        <v>0.7053318063512657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5789953177955164</v>
+        <v>0.5789953177955165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7330718132201376</v>
+        <v>0.7330718132200268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6995608017178157</v>
+        <v>0.6995608017152962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5822840120839323</v>
+        <v>0.5822840120830608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6159075065540461</v>
+        <v>0.6159075065526431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5701764637570302</v>
+        <v>0.5701764637570012</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5740250525228061</v>
+        <v>0.5740250525228218</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5736220357866839</v>
+        <v>0.5736220357866612</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6648288172968557</v>
+        <v>0.6648288172965421</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6014800735915217</v>
+        <v>0.6014800735918827</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5972427290496294</v>
+        <v>0.597242729049714</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5678741532335224</v>
+        <v>0.5678741532335213</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5719567910166518</v>
+        <v>0.5719567910166329</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5785858697171564</v>
+        <v>0.5785858697171775</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5820132532492969</v>
+        <v>0.5820132532491394</v>
       </c>
       <c r="V4" t="n">
-        <v>0.716280897642399</v>
+        <v>0.7162808976425807</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7272302116567498</v>
+        <v>0.7272302116571483</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5735730866923845</v>
+        <v>0.5735730866923643</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5853522696897197</v>
+        <v>0.5853522696892747</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6100139792808105</v>
+        <v>0.610013979280974</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.594859232952509</v>
+        <v>0.5948592329525917</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5847612220078857</v>
+        <v>0.5847612220078859</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5885040244322493</v>
+        <v>0.5885040244322569</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6774691507371551</v>
+        <v>0.67746915073714</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5621262867402137</v>
+        <v>0.5621262867402231</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5678436693428576</v>
+        <v>0.5678436693428577</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5706073291622227</v>
+        <v>0.5706073291622312</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5747331151124342</v>
+        <v>0.5747331151124373</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5664165051458625</v>
+        <v>0.5664165051458587</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5792898944030856</v>
+        <v>0.5792898944031842</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5718145482250167</v>
+        <v>0.5718145482250192</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5743925781412846</v>
+        <v>0.5743925781412844</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5563613964083163</v>
+        <v>0.5563613964083161</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5793403130504681</v>
+        <v>0.5793403130504711</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6513970987056104</v>
+        <v>0.6513970987055877</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5959801342476342</v>
+        <v>0.5959801342476286</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5531990134914184</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6767108382656215</v>
+        <v>0.6767108382652589</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3510,130 +3510,130 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.640298051539489</v>
+        <v>0.6402980515459257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5927365746863309</v>
+        <v>0.5927365746789703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5274182009072134</v>
+        <v>0.5274182009072125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6102437667461449</v>
+        <v>0.6102437667439714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.586258555672905</v>
+        <v>0.5862585556686378</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6368045116539235</v>
+        <v>0.6368045116539917</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6572263893978928</v>
+        <v>0.6572263893957394</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5794873363572313</v>
+        <v>0.5794873363572078</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6500800738938057</v>
+        <v>0.6500800738939867</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5873915241072312</v>
+        <v>0.5873915241072247</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6229161513556883</v>
+        <v>0.6229161513594864</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5687251090728742</v>
+        <v>0.5687251090728656</v>
       </c>
       <c r="O5" t="n">
-        <v>0.635811260200277</v>
+        <v>0.6358112602021687</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5753465951614638</v>
+        <v>0.5753465951614646</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5787996807344558</v>
+        <v>0.5787996807344556</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5842717502933032</v>
+        <v>0.5842717502933031</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5762163060164484</v>
+        <v>0.5762163060164467</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5855143492158335</v>
+        <v>0.5855143492158155</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5874032567743227</v>
+        <v>0.587403256773351</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5896895541295099</v>
+        <v>0.589689554129634</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5709315802166308</v>
+        <v>0.5709315802161484</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5646143037716896</v>
+        <v>0.5646143037716889</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.561145085398448</v>
+        <v>0.5611450853984304</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7071582716396619</v>
+        <v>0.7071582716387732</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6316704665320267</v>
+        <v>0.6316704665320021</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6204256323111846</v>
+        <v>0.6204256323110227</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5777794225099712</v>
+        <v>0.5777794225099706</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6363381060048932</v>
+        <v>0.6363381060049275</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5728171447323115</v>
+        <v>0.5728171447323127</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6239828212347794</v>
+        <v>0.6239828212350755</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6106309655933563</v>
+        <v>0.6106309655936958</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5777189391725901</v>
+        <v>0.5777189391724922</v>
       </c>
       <c r="AI5" t="n">
         <v>0.5694765272007747</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6618288008974753</v>
+        <v>0.6618288008974158</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.6112074133734288</v>
+        <v>0.611207413375048</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.5651900652349731</v>
+        <v>0.5651900652349626</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5727084291926345</v>
+        <v>0.5727084291926389</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.5898195484776205</v>
+        <v>0.5898195484779316</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.5805994078815786</v>
+        <v>0.5805994078812355</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5799729413537206</v>
+        <v>0.5799729413537213</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.5532096600209609</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6121125087740096</v>
+        <v>0.6121125087732725</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -3641,130 +3641,130 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5992984903520087</v>
+        <v>0.5992984903552535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6036570341232744</v>
+        <v>0.6036570341245981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4971058256224724</v>
+        <v>0.4971058256224726</v>
       </c>
       <c r="F6" t="n">
         <v>0.5653778179173563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5852958563710643</v>
+        <v>0.585295856370903</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6036387169527258</v>
+        <v>0.6036387169522083</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5810778509437103</v>
+        <v>0.5810778509437051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5708050376394449</v>
+        <v>0.5708050376394521</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5829650317931181</v>
+        <v>0.5829650317930698</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5677680221838581</v>
+        <v>0.5677680221838571</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6434789484336323</v>
+        <v>0.6434789484331174</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5949437967430027</v>
+        <v>0.5949437967430321</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6078033687301829</v>
+        <v>0.6078033687301521</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5749341755579457</v>
+        <v>0.5749341755579468</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6000580693817461</v>
+        <v>0.6000580693829765</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5835174095282262</v>
+        <v>0.5835174095281511</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6827221035477214</v>
+        <v>0.6827221035476657</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5735126291549612</v>
+        <v>0.5735126291549613</v>
       </c>
       <c r="U6" t="n">
-        <v>0.638691476671939</v>
+        <v>0.6386914766725268</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6158042687399643</v>
+        <v>0.6158042687398841</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5822781431557661</v>
+        <v>0.5822781431557663</v>
       </c>
       <c r="X6" t="n">
-        <v>0.573452542176954</v>
+        <v>0.5734525421769469</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5597658192223792</v>
+        <v>0.5597658192223988</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5830473816933974</v>
+        <v>0.5830473816933939</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5619408763129109</v>
+        <v>0.561940876312912</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.5761144954559652</v>
+        <v>0.5761144954559043</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5606051773694979</v>
+        <v>0.5606051773694798</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6843980815005024</v>
+        <v>0.6843980815010872</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5695992700281937</v>
+        <v>0.569599270028158</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6789195894387976</v>
+        <v>0.6789195894396859</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6311001621910879</v>
+        <v>0.631100162189753</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5811725944084307</v>
+        <v>0.5811725944083503</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5644999495996652</v>
+        <v>0.5644999495996651</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.5813593512543827</v>
+        <v>0.5813593512543831</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6273565337581732</v>
+        <v>0.627356533760717</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5724194010994145</v>
+        <v>0.5724194010994154</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5706217481168649</v>
+        <v>0.5706217481168626</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5785654922417671</v>
+        <v>0.5785654922417656</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.691943536277164</v>
+        <v>0.6919435362768621</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6956154637477876</v>
+        <v>0.6956154637473433</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5532108330992573</v>
+        <v>0.5532108330992571</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7280855614766718</v>
+        <v>0.7280855614766606</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3772,130 +3772,130 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7515961304908638</v>
+        <v>0.7515961304907866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6829293085836328</v>
+        <v>0.6829293085834942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4982705663710126</v>
+        <v>0.4982705663710121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5681014673375072</v>
+        <v>0.5681014673375073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7334070281013602</v>
+        <v>0.7334070281014369</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5755735711912575</v>
+        <v>0.5755735711912574</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5829904529057547</v>
+        <v>0.5829904529057602</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5714712836802737</v>
+        <v>0.5714712836802718</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6535181196895335</v>
+        <v>0.6535181196892748</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5717114416725328</v>
+        <v>0.5717114416725424</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5828285492325855</v>
+        <v>0.5828285492326287</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5711066366593901</v>
+        <v>0.5711066366593791</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6291989196396024</v>
+        <v>0.6291989196407783</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5742901675902902</v>
+        <v>0.5742901675902897</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5829614528129521</v>
+        <v>0.5829614528131705</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5751718439344946</v>
+        <v>0.5751718439344953</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7125870059875802</v>
+        <v>0.7125870059874103</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5955972297735279</v>
+        <v>0.5955972297731151</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6470798373094562</v>
+        <v>0.6470798373078364</v>
       </c>
       <c r="V7" t="n">
-        <v>0.574579454031937</v>
+        <v>0.5745794540317751</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6528691230821871</v>
+        <v>0.6528691230825246</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5750301926982676</v>
+        <v>0.5750301926982657</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5636020974478432</v>
+        <v>0.5636020974478385</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6419584355528967</v>
+        <v>0.6419584355507086</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5665758051050718</v>
+        <v>0.5665758051050781</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5723540057664174</v>
+        <v>0.5723540057664175</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6145332001097349</v>
+        <v>0.6145332001118726</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6108960222926658</v>
+        <v>0.6108960222925128</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.566569895510024</v>
+        <v>0.5665698955100218</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.580039451803649</v>
+        <v>0.5800394518036495</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5662437109719197</v>
+        <v>0.5662437109719025</v>
       </c>
       <c r="AH7" t="n">
         <v>0.5853231425253563</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.560392053275539</v>
+        <v>0.5603920532755402</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.5754974863470206</v>
+        <v>0.5754974863470986</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5728013892626673</v>
+        <v>0.5728013892626013</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5758750999454536</v>
+        <v>0.5758750999454496</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.5636981081272529</v>
+        <v>0.5636981081272312</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5769374392516339</v>
+        <v>0.5769374392516343</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.5647822775839227</v>
+        <v>0.5647822775839175</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6222544927534691</v>
+        <v>0.6222544927550816</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5532102075196378</v>
+        <v>0.5532102075196379</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6737128967347303</v>
+        <v>0.6737128967349163</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -3903,130 +3903,130 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7292274813805277</v>
+        <v>0.7292274813790544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6715300578740457</v>
+        <v>0.6715300578778695</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4980689122970563</v>
+        <v>0.4980689122970561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6285275715077625</v>
+        <v>0.6285275715126355</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5796632190698342</v>
+        <v>0.5796632190698866</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6377004129645271</v>
+        <v>0.6377004129644983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5832884676011199</v>
+        <v>0.5832884676011156</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6420298620522681</v>
+        <v>0.6420298620583675</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6099151987132009</v>
+        <v>0.6099151987128276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.579596371871991</v>
+        <v>0.5795963718720081</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6063492562568537</v>
+        <v>0.6063492562582227</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6321313611702384</v>
+        <v>0.6321313611695006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6418658435562421</v>
+        <v>0.6418658435532923</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5799178671612807</v>
+        <v>0.579917867161316</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5809616507884784</v>
+        <v>0.5809616507884783</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5812968248596708</v>
+        <v>0.5812968248596619</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5802480369348703</v>
+        <v>0.5802480369347804</v>
       </c>
       <c r="T8" t="n">
-        <v>0.582473490849327</v>
+        <v>0.5824734908493302</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5784388099451596</v>
+        <v>0.5784388099451142</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5807566000804849</v>
+        <v>0.5807566000804851</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5750693921589618</v>
+        <v>0.5750693921586527</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5737742921990936</v>
+        <v>0.5737742921990933</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5683995202285749</v>
+        <v>0.5683995202286969</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5766728673183277</v>
+        <v>0.5766728673182855</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.724905329460283</v>
+        <v>0.7249053294606208</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5770203553061157</v>
+        <v>0.577020355306195</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5727229302087909</v>
+        <v>0.5727229302087707</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.613444325410281</v>
+        <v>0.6134443254102625</v>
       </c>
       <c r="AE8" t="n">
         <v>0.5774995847041808</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5933939439112855</v>
+        <v>0.5933939439113268</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5766797467749907</v>
+        <v>0.5766797467749909</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5728285051136414</v>
+        <v>0.5728285051136418</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6820487821668361</v>
+        <v>0.6820487821668486</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5785853477214552</v>
+        <v>0.5785853477213603</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5661050407488226</v>
+        <v>0.5661050407488225</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5559142594205281</v>
+        <v>0.5559142594199263</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.5636746786565338</v>
+        <v>0.5636746786565333</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5917537945722197</v>
+        <v>0.5917537945723663</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5906578920535274</v>
+        <v>0.5906578920534679</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.7681234872867436</v>
+        <v>0.7681234872867793</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5532105506749823</v>
+        <v>0.5532105506749824</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.597644276962329</v>
+        <v>0.5976442769591547</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4034,130 +4034,130 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7003455706842497</v>
+        <v>0.7003455706854561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7075665936743754</v>
+        <v>0.7075665936690111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4981515047629381</v>
+        <v>0.498151504762938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5672752392140552</v>
+        <v>0.5672752392140555</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6141090207649917</v>
+        <v>0.6141090207643937</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6513348091451221</v>
+        <v>0.6513348091451923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6942083953742019</v>
+        <v>0.6942083953760705</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5882548108312502</v>
+        <v>0.5882548108312748</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5816714643396401</v>
+        <v>0.5816714643387163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5736698879187139</v>
+        <v>0.5736698879187166</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7107816470848839</v>
+        <v>0.7107816470854232</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5796344413711508</v>
+        <v>0.5796344413712502</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5811973081637883</v>
+        <v>0.5811973081639434</v>
       </c>
       <c r="P9" t="n">
         <v>0.577776122040763</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5836988185695438</v>
+        <v>0.5836988185701432</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5824354699542834</v>
+        <v>0.5824354699526818</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5752065467469315</v>
+        <v>0.5752065467469388</v>
       </c>
       <c r="T9" t="n">
-        <v>0.611506910666022</v>
+        <v>0.6115069106661309</v>
       </c>
       <c r="U9" t="n">
-        <v>0.567053372491383</v>
+        <v>0.567053372490707</v>
       </c>
       <c r="V9" t="n">
         <v>0.5797176124892038</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5706641449807403</v>
+        <v>0.5706641449811255</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5681956934061647</v>
+        <v>0.5681956934061628</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6136527072695152</v>
+        <v>0.6136527072704715</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5834000920889065</v>
+        <v>0.5834000920888692</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5648091218732194</v>
+        <v>0.5648091218732544</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5738768363311121</v>
+        <v>0.5738768363311122</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5611029563676879</v>
+        <v>0.5611029563676881</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5708649987697642</v>
+        <v>0.5708649987695753</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7292249894245587</v>
+        <v>0.7292249894246141</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5753263240844603</v>
+        <v>0.5753263240844464</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5695615974140019</v>
+        <v>0.5695615974117723</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5952838419526065</v>
+        <v>0.5952838419513503</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6944791827494141</v>
+        <v>0.6944791827495599</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.5787799911718137</v>
+        <v>0.5787799911718134</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5785556917506697</v>
+        <v>0.5785556917506195</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5727947575274617</v>
+        <v>0.5727947575274618</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5563554620517556</v>
+        <v>0.5563554620517552</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5852551249453467</v>
+        <v>0.5852551249453587</v>
       </c>
       <c r="AO9" t="n">
         <v>0.558422521129821</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.60236413535269</v>
+        <v>0.6023641353524972</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5532098591574147</v>
+        <v>0.5532098591574145</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7551127779373688</v>
+        <v>0.7551127779384591</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4165,130 +4165,130 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6017070859547491</v>
+        <v>0.6017070859547207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6477928662631876</v>
+        <v>0.6477928662652211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7601776472225362</v>
+        <v>0.7601776472225739</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6342692344525269</v>
+        <v>0.6342692344524484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5700408398151543</v>
+        <v>0.57004083981516</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5709949989815528</v>
+        <v>0.5709949989815531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6599188168379092</v>
+        <v>0.6599188168429152</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5737676378495435</v>
+        <v>0.5737676378495458</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5752518571248009</v>
+        <v>0.5752518571248226</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6304949905782163</v>
+        <v>0.6304949905772986</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5953744800834446</v>
+        <v>0.5953744800835218</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5766560731818937</v>
+        <v>0.5766560731818887</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6535330308439163</v>
+        <v>0.6535330308437542</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7074451176662719</v>
+        <v>0.7074451176658636</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5665058853868694</v>
+        <v>0.5665058853868686</v>
       </c>
       <c r="R10" t="n">
-        <v>0.573444153108831</v>
+        <v>0.5734441531087536</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6988058416260782</v>
+        <v>0.6988058416257964</v>
       </c>
       <c r="T10" t="n">
-        <v>0.566217725782304</v>
+        <v>0.5662177257876411</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6600845462171097</v>
+        <v>0.6600845462152881</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5721149675250788</v>
+        <v>0.5721149675247076</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6096922942757448</v>
+        <v>0.6096922942818968</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6935443423880913</v>
+        <v>0.6935443423881748</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6459863195860387</v>
+        <v>0.6459863195852286</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6862024713611309</v>
+        <v>0.6862024713582118</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7138763867134968</v>
+        <v>0.7138763867136291</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7025887741128292</v>
+        <v>0.7025887741101314</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5650764110791305</v>
+        <v>0.5650764110791296</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5700356469933053</v>
+        <v>0.5700356469933066</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7302580639814408</v>
+        <v>0.7302580639811349</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5787954948582554</v>
+        <v>0.5787954948579574</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.691393584144808</v>
+        <v>0.6913935841465512</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.5883845755207071</v>
+        <v>0.5883845755207008</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7640685481715582</v>
+        <v>0.7640685481714563</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.57010955309609</v>
+        <v>0.5701095530960906</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6115407341060134</v>
+        <v>0.611540734106106</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7665074289247985</v>
+        <v>0.766507428924762</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.661576180242586</v>
+        <v>0.6615761802422363</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7295650397340692</v>
+        <v>0.7295650397339298</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7314404717904469</v>
+        <v>0.731440471790484</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.5799183483894906</v>
+        <v>0.5799183483895394</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.553235881603247</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6221283695439656</v>
+        <v>0.6221283695464341</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4296,130 +4296,130 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>0.60760212929999</v>
+        <v>0.6076021292971092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7064571506353357</v>
+        <v>0.7064571506352786</v>
       </c>
       <c r="E11" t="n">
         <v>0.4988520915527762</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5606044026641026</v>
+        <v>0.5606044026641178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6325483000814276</v>
+        <v>0.6325483000814245</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5825361197749297</v>
+        <v>0.5825361197749076</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5897920767314571</v>
+        <v>0.5897920767314931</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5796505801855437</v>
+        <v>0.5796505801855428</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6575862967134736</v>
+        <v>0.6575862967132815</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5822270130955982</v>
+        <v>0.582227013095618</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5714480704171323</v>
+        <v>0.5714480704171488</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6258895401793352</v>
+        <v>0.6258895401813572</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6205312060213779</v>
+        <v>0.6205312060208203</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5787592632727437</v>
+        <v>0.5787592632727547</v>
       </c>
       <c r="Q11" t="n">
         <v>0.5754920666605616</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5833549060095217</v>
+        <v>0.5833549060095206</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5727185293871186</v>
+        <v>0.5727185293871233</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5912951488365574</v>
+        <v>0.5912951488363043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5753826248954219</v>
+        <v>0.5753826248954207</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6178467556415582</v>
+        <v>0.6178467556567778</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6024910286486793</v>
+        <v>0.6024910286531784</v>
       </c>
       <c r="X11" t="n">
         <v>0.5727685647772278</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5654417375939387</v>
+        <v>0.5654417375942464</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5792503815703839</v>
+        <v>0.5792503815704027</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5777888790656434</v>
+        <v>0.5777888790656418</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5814622157684816</v>
+        <v>0.5814622157684757</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5791255280771129</v>
+        <v>0.5791255280771095</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5748197957960114</v>
+        <v>0.5748197957960117</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.5783841136209931</v>
+        <v>0.5783841136210187</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5819369499365447</v>
+        <v>0.5819369499374358</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5612785362081401</v>
+        <v>0.5612785362081241</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5703458728748534</v>
+        <v>0.5703458728750044</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6528062871717943</v>
+        <v>0.6528062871778992</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5752815253808472</v>
+        <v>0.575281525380727</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5698077229660721</v>
+        <v>0.5698077229662156</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.5734058771198047</v>
+        <v>0.5734058771198255</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5743724087780036</v>
+        <v>0.5743724087780041</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.5995643488313852</v>
+        <v>0.5995643488339266</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5684593571344394</v>
+        <v>0.5684593571344474</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5775286877776127</v>
+        <v>0.5775286877776065</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5532106264069382</v>
+        <v>0.5532106264069381</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.6512208023055565</v>
+        <v>0.651220802306508</v>
       </c>
     </row>
   </sheetData>
